--- a/Chicago_Sketch.xlsx
+++ b/Chicago_Sketch.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,31 +477,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0111396619540117</v>
+        <v>0.1033669696088512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.013922608273281</v>
+        <v>0.1156965705825608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0124590201463176</v>
+        <v>0.1090665240007058</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0139685993646309</v>
+        <v>0.1152626660202152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0189036227975672</v>
+        <v>0.1336324885524118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0203264329032187</v>
+        <v>0.1405535183461671</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0239405231400168</v>
+        <v>0.1499653734994152</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0264902812588364</v>
+        <v>0.1580790017394266</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0406722733808929</v>
+        <v>0.1930533208957782</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.209191108553908</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2289091563840837</v>
       </c>
     </row>
     <row r="3">
@@ -505,31 +517,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0109184565343211</v>
+        <v>0.1022311950791885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0138122897404788</v>
+        <v>0.1152583016607767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0123464241445901</v>
+        <v>0.1083253652032031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0136781526074008</v>
+        <v>0.1140991201984093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0183609715067223</v>
+        <v>0.1315135478214231</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0201120952299084</v>
+        <v>0.1400938210389392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0240325852319578</v>
+        <v>0.1501335141869403</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0263956545902053</v>
+        <v>0.1581110130991293</v>
       </c>
       <c r="J3" t="n">
-        <v>0.039724371690685</v>
+        <v>0.1907449898866187</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2083833231996603</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2313035466368292</v>
       </c>
     </row>
     <row r="4">
@@ -539,31 +557,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0101510723</v>
+        <v>0.0101382454799999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01297829523</v>
+        <v>0.0127128271599999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01096296532</v>
+        <v>0.01111449868</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0123796053</v>
+        <v>0.0130236184</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0170908792</v>
+        <v>0.01734942633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0176291876</v>
+        <v>0.017834211</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0217561343</v>
+        <v>0.0216732363</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0239484916999999</v>
+        <v>0.0240960926499999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0388746668999999</v>
+        <v>0.03920717425</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0380674284</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0551704497</v>
       </c>
     </row>
     <row r="5">
@@ -581,6 +605,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -593,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +655,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -663,6 +695,12 @@
       <c r="J2" t="n">
         <v>0.0077941953664771</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.0093418926102301</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0110296253290943</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -697,6 +735,12 @@
       <c r="J3" t="n">
         <v>0.007834398377203299</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.0094981077422579</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0112626622952171</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -705,31 +749,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00399396292</v>
+        <v>0.00386942026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00478198529</v>
+        <v>0.0046179197999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00431191517</v>
+        <v>0.00440634903</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0044176719</v>
+        <v>0.0048180730199999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00566116948</v>
+        <v>0.0057419649</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00625338248</v>
+        <v>0.0063312632199999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0066742332</v>
+        <v>0.00668186805</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008295897389999999</v>
+        <v>0.0082270991999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01159580985</v>
+        <v>0.011945524</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0154958498599999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.02751434365</v>
       </c>
     </row>
     <row r="5">
@@ -747,6 +797,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -759,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +847,12 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -829,6 +887,12 @@
       <c r="J2" t="n">
         <v>0.1270874288890267</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.1205975710553134</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1388766787087007</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -863,6 +927,12 @@
       <c r="J3" t="n">
         <v>0.1606246140642936</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.1187656420531076</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0519602715094874</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -871,31 +941,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2700261350541503</v>
+        <v>0.2777254847436962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2352955250708191</v>
+        <v>0.2522964292675415</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3300467454823074</v>
+        <v>0.298764402822299</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3125546445005823</v>
+        <v>0.2201953981926922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2783728124059855</v>
+        <v>0.2604434607803559</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3282138885910083</v>
+        <v>0.3167821729333702</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2792710515918009</v>
+        <v>0.2800999554215255</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2934524930168466</v>
+        <v>0.2911716721006018</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2051415490696323</v>
+        <v>0.2015311331531153</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1795953050758076</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.0755494013315126</v>
       </c>
     </row>
     <row r="5">
@@ -913,6 +989,8 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
